--- a/examples/kim+sam.xlsx
+++ b/examples/kim+sam.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA48F334-3D53-4354-93D2-5A7A1C14CF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891729D2-D6E9-485E-8C1F-C01D198D77A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
     <sheet name="Sam" sheetId="2" r:id="rId2"/>
+    <sheet name="Debts" sheetId="3" r:id="rId3"/>
+    <sheet name="Fixed Assets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>Roth IRA ctrb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>yod</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -117,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,18 +469,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="13" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -492,7 +522,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -505,7 +535,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -518,7 +548,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -531,7 +561,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -544,7 +574,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2025</v>
       </c>
@@ -557,7 +587,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -570,7 +600,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2027</v>
       </c>
@@ -583,7 +613,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -596,7 +626,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2029</v>
       </c>
@@ -609,7 +639,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -622,7 +652,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2031</v>
       </c>
@@ -635,7 +665,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -648,7 +678,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2033</v>
       </c>
@@ -661,7 +691,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -674,7 +704,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2035</v>
       </c>
@@ -687,7 +717,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -700,7 +730,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2037</v>
       </c>
@@ -713,7 +743,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -726,7 +756,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2039</v>
       </c>
@@ -739,7 +769,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -752,7 +782,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2041</v>
       </c>
@@ -765,7 +795,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -778,7 +808,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2043</v>
       </c>
@@ -791,7 +821,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -804,7 +834,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2045</v>
       </c>
@@ -817,7 +847,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -830,7 +860,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2047</v>
       </c>
@@ -843,7 +873,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -856,7 +886,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2049</v>
       </c>
@@ -869,7 +899,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -882,7 +912,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2051</v>
       </c>
@@ -895,7 +925,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2052</v>
       </c>
@@ -908,7 +938,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2053</v>
       </c>
@@ -921,7 +951,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2054</v>
       </c>
@@ -934,17 +964,17 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2055</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2056</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2057</v>
       </c>
@@ -959,17 +989,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -1011,7 +1041,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -1024,7 +1054,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -1037,7 +1067,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -1050,7 +1080,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -1063,7 +1093,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2025</v>
       </c>
@@ -1076,7 +1106,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -1089,7 +1119,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2027</v>
       </c>
@@ -1102,7 +1132,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -1115,7 +1145,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2029</v>
       </c>
@@ -1128,7 +1158,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -1141,7 +1171,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2031</v>
       </c>
@@ -1154,7 +1184,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -1167,7 +1197,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2033</v>
       </c>
@@ -1180,7 +1210,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -1193,7 +1223,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2035</v>
       </c>
@@ -1206,7 +1236,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -1219,7 +1249,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2037</v>
       </c>
@@ -1232,7 +1262,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -1245,7 +1275,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2039</v>
       </c>
@@ -1258,7 +1288,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -1271,7 +1301,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2041</v>
       </c>
@@ -1284,7 +1314,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -1297,7 +1327,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2043</v>
       </c>
@@ -1310,7 +1340,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -1323,7 +1353,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2045</v>
       </c>
@@ -1336,7 +1366,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -1349,7 +1379,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2047</v>
       </c>
@@ -1362,7 +1392,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -1375,7 +1405,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2049</v>
       </c>
@@ -1388,7 +1418,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -1401,7 +1431,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2051</v>
       </c>
@@ -1414,7 +1444,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2052</v>
       </c>
@@ -1427,7 +1457,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2053</v>
       </c>
@@ -1440,7 +1470,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2054</v>
       </c>
@@ -1453,7 +1483,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2055</v>
       </c>
@@ -1466,7 +1496,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2056</v>
       </c>
@@ -1479,9 +1509,82 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE4F2A0-2CDD-4072-AC85-283619E19CA7}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82375A5-ECB3-4F99-92D3-C7FB0B0D14F3}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
